--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:39:16+00:00</t>
+    <t>2025-08-01T06:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:15:10+00:00</t>
+    <t>2025-08-11T13:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,7 +455,7 @@
     <t>Person.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -517,7 +517,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -560,7 +560,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1230,7 +1230,7 @@
     <t>Person.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1314,7 +1314,7 @@
     <t>Person.link.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|RelatedPerson|Person)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|RelatedPerson|4.0.1|Person|4.0.1)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil générique créé à partir de Person dans le contexte de l'Annuaire Santé pour décrire les différents concepts utilisés pour définir et caractériser un professionnel en tant que personne physique (données restreintes).</t>
+    <t>Profil générique créé à partir de Person dans le contexte de l'Annuaire Santé pour décrire les informations relatives à la Personne Physique (données restreintes).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -843,7 +843,7 @@
 </t>
   </si>
   <si>
-    <t>Le nom de famille (également nommé nom de naissance) ou le nom d'usage du professionnel.</t>
+    <t>Le nom civil (également nommé nom de naissance ou nom de famille).</t>
   </si>
   <si>
     <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
@@ -871,7 +871,7 @@
 middle name</t>
   </si>
   <si>
-    <t>Prénom(s) déclarés à sa naissance du professionnel.</t>
+    <t>Prénom(s) civil(s) déclarés à la naissance du professionnel.</t>
   </si>
   <si>
     <t>Given name.</t>
@@ -2425,7 +2425,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>198</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>205</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>211</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>230</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>306</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>357</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>367</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>384</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>396</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>427</v>
       </c>
@@ -8685,12 +8685,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN61">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="428">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -566,9 +566,6 @@
     <t>Resource.language</t>
   </si>
   <si>
-    <t>PersonnePhysique.langueParlee</t>
-  </si>
-  <si>
     <t>Person.text</t>
   </si>
   <si>
@@ -633,45 +630,26 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>Person.extension:as-ext-person-nationality</t>
-  </si>
-  <si>
-    <t>as-ext-person-nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-person-nationality}
+    <t>Person.extension:as-ext-person-birth-place</t>
+  </si>
+  <si>
+    <t>as-ext-person-birth-place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-person-birth-place}
 </t>
   </si>
   <si>
-    <t>AS Person Nationality Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la nationalité du professionel (Person).</t>
+    <t>AS Person Birth Place Extension</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte du lieu de naissance du professionnel en tant que personne physique.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>PersonnePhysique.paysNationalite</t>
-  </si>
-  <si>
-    <t>Person.extension:as-ext-person-birth-place</t>
-  </si>
-  <si>
-    <t>as-ext-person-birth-place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-person-birth-place}
-</t>
-  </si>
-  <si>
-    <t>AS Person Birth Place Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte du lieu de naissance du professionnel en tant que personne physique.</t>
-  </si>
-  <si>
     <t>PersonnePhysique.lieuNaissance</t>
   </si>
   <si>
@@ -855,7 +833,7 @@
     <t>HumanName.family</t>
   </si>
   <si>
-    <t>PersonnePhysique.nomUsage</t>
+    <t>PersonnePhysique.nomFamille</t>
   </si>
   <si>
     <t>./part[partType = FAM]</t>
@@ -883,7 +861,7 @@
     <t>HumanName.given</t>
   </si>
   <si>
-    <t>PersonnePhysique.prenomUsuel</t>
+    <t>PersonnePhysique.prenom</t>
   </si>
   <si>
     <t>./part[partType = GIV]</t>
@@ -1687,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3439,7 +3417,7 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3453,14 +3431,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3479,16 +3457,16 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3538,7 +3516,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3556,7 +3534,7 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3567,14 +3545,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3593,16 +3571,16 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3652,7 +3630,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3670,7 +3648,7 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3681,10 +3659,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3710,10 +3688,10 @@
         <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3762,7 +3740,7 @@
         <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3791,13 +3769,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>77</v>
@@ -3807,7 +3785,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>89</v>
@@ -3819,13 +3797,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3876,7 +3854,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3885,13 +3863,13 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -3905,13 +3883,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3933,13 +3911,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3990,7 +3968,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3999,64 +3977,66 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I21" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4104,7 +4084,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4113,16 +4093,16 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4133,14 +4113,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4153,25 +4133,23 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4220,7 +4198,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4232,27 +4210,27 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4266,26 +4244,28 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4334,7 +4314,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4352,21 +4332,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4377,32 +4357,28 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4450,50 +4426,50 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4505,15 +4481,17 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4550,31 +4528,31 @@
         <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
@@ -4591,21 +4569,23 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4617,17 +4597,15 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4664,16 +4642,16 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>116</v>
@@ -4694,7 +4672,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4705,14 +4683,12 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4727,22 +4703,26 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4766,13 +4746,11 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4790,39 +4768,39 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4839,25 +4817,25 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4882,11 +4860,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4904,7 +4884,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4922,25 +4902,25 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4962,17 +4942,15 @@
         <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5020,7 +4998,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5035,35 +5013,35 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5078,13 +5056,13 @@
         <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5134,13 +5112,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -5149,35 +5127,35 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5192,14 +5170,12 @@
         <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N31" t="s" s="2">
         <v>276</v>
       </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5224,13 +5200,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5248,7 +5224,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5263,24 +5239,24 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5291,7 +5267,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5306,10 +5282,10 @@
         <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5339,10 +5315,10 @@
         <v>151</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5360,7 +5336,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5375,24 +5351,24 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5403,7 +5379,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5415,16 +5391,18 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5448,13 +5426,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5472,13 +5450,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5490,21 +5468,21 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5515,10 +5493,10 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>77</v>
@@ -5527,17 +5505,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5586,13 +5566,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5604,21 +5584,21 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5629,32 +5609,28 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>307</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>103</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5702,50 +5678,50 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>105</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5757,15 +5733,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5802,31 +5780,31 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5843,21 +5821,23 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="D37" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5869,17 +5849,15 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5916,16 +5894,16 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>116</v>
@@ -5946,7 +5924,7 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5957,23 +5935,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5982,16 +5958,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>318</v>
+        <v>169</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6018,13 +5994,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6042,39 +6018,39 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>116</v>
+        <v>319</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6097,16 +6073,20 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6130,13 +6110,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6154,7 +6134,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6163,7 +6143,7 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>100</v>
@@ -6172,21 +6152,21 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6194,7 +6174,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6203,25 +6183,25 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6246,13 +6226,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6270,7 +6250,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6288,21 +6268,21 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6319,26 +6299,24 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6362,13 +6340,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6404,21 +6382,21 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>346</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6441,17 +6419,15 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6500,7 +6476,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6518,21 +6494,21 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>106</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6546,7 +6522,7 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>77</v>
@@ -6555,16 +6531,20 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6588,13 +6568,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6612,7 +6592,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6627,24 +6607,24 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>193</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6667,19 +6647,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>169</v>
+        <v>361</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6704,13 +6684,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6728,7 +6708,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6743,24 +6723,24 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6771,31 +6751,31 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6844,13 +6824,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -6859,24 +6839,24 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6887,10 +6867,10 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>77</v>
@@ -6899,20 +6879,16 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N46" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="O46" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6960,13 +6936,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -6978,21 +6954,21 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AM46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN46" t="s" s="2">
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
         <v>383</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="B47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7006,25 +6982,27 @@
         <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K47" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7072,7 +7050,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7096,15 +7074,15 @@
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
         <v>389</v>
       </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="B48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7118,26 +7096,26 @@
         <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7186,7 +7164,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7204,16 +7182,16 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AM48" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>396</v>
       </c>
@@ -7229,16 +7207,16 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>397</v>
@@ -7250,9 +7228,7 @@
         <v>399</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7288,16 +7264,14 @@
         <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>396</v>
@@ -7306,7 +7280,7 @@
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7321,7 +7295,7 @@
         <v>401</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7329,10 +7303,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7343,7 +7317,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7355,13 +7329,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>404</v>
+        <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>405</v>
+        <v>103</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>406</v>
+        <v>104</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7400,35 +7374,37 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>403</v>
+        <v>105</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>408</v>
+        <v>106</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7439,21 +7415,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7465,15 +7441,17 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7522,19 +7500,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7551,14 +7529,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7571,24 +7549,26 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>110</v>
+        <v>406</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>111</v>
+        <v>407</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7636,7 +7616,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>116</v>
+        <v>408</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7654,7 +7634,7 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7665,46 +7645,42 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>109</v>
+        <v>410</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7752,25 +7728,25 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>193</v>
+        <v>413</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7781,10 +7757,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7792,7 +7768,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -7807,13 +7783,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>417</v>
+        <v>169</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7840,13 +7816,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7864,10 +7840,10 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>88</v>
@@ -7882,23 +7858,25 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AM54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
+      <c r="B55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C55" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="B55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7907,10 +7885,10 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>77</v>
@@ -7919,13 +7897,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>169</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7952,13 +7930,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7976,13 +7954,13 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
@@ -7994,7 +7972,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8003,16 +7981,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8021,10 +7997,10 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>77</v>
@@ -8033,13 +8009,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>404</v>
+        <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>405</v>
+        <v>103</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>406</v>
+        <v>104</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8090,25 +8066,25 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>403</v>
+        <v>105</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>408</v>
+        <v>106</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8119,21 +8095,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8145,15 +8121,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8202,19 +8180,19 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8231,14 +8209,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8251,24 +8229,26 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>110</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>111</v>
+        <v>407</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8316,7 +8296,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>116</v>
+        <v>408</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8334,7 +8314,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8345,46 +8325,42 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>109</v>
+        <v>426</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8432,25 +8408,25 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>193</v>
+        <v>413</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8461,10 +8437,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8472,7 +8448,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -8487,13 +8463,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>169</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8520,13 +8496,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8544,10 +8520,10 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>88</v>
@@ -8562,129 +8538,17 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN61" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61">
+  <autoFilter ref="A1:AN60">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8694,7 +8558,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$60</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="383">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T13:03:27+00:00</t>
+    <t>2025-10-10T07:08:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -326,7 +323,248 @@
 </t>
   </si>
   <si>
-    <t>Person.meta.id</t>
+    <t>Person.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Person.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Person.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Person.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Person.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Person.extension:as-ext-person-birth-place</t>
+  </si>
+  <si>
+    <t>as-ext-person-birth-place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-person-birth-place}
+</t>
+  </si>
+  <si>
+    <t>AS Person Birth Place Extension</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte du lieu de naissance du professionnel en tant que personne physique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>PersonnePhysique.lieuNaissance</t>
+  </si>
+  <si>
+    <t>Person.extension:as-ext-person-deceased-date-time</t>
+  </si>
+  <si>
+    <t>as-ext-person-deceased-date-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.deceasedDateTime}
+</t>
+  </si>
+  <si>
+    <t>AS Person Deceased Date Time Extension</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la date de décès du professionnel (Date of death of the Person if applicable).</t>
+  </si>
+  <si>
+    <t>PersonnePhysique.dateDeces</t>
+  </si>
+  <si>
+    <t>Person.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Person.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>A human identifier for this person</t>
+  </si>
+  <si>
+    <t>Identifier for a person within a particular scope.</t>
+  </si>
+  <si>
+    <t>People are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the person. Examples are national person identifier and local identifier.</t>
+  </si>
+  <si>
+    <t>.plays:Role(classCode='IDENT').id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Person.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+</t>
+  </si>
+  <si>
+    <t>Nom issu de l’état-civil.</t>
+  </si>
+  <si>
+    <t>A name associated with the person.</t>
+  </si>
+  <si>
+    <t>Person may have multiple names with different uses or applicable periods.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by multiple names. Examples are your official name and a partner name.</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>Person.name.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -345,15 +583,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Person.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
+    <t>Person.name.extension</t>
   </si>
   <si>
     <t>Additional content defined by implementations</t>
@@ -362,386 +592,10 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Person.meta.extension:as-ext-data-trace</t>
-  </si>
-  <si>
-    <t>as-ext-data-trace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
-</t>
-  </si>
-  <si>
-    <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source.</t>
-  </si>
-  <si>
-    <t>Person.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Person.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Person.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Person.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Person.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Person.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Person.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Person.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Person.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Person.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Person.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Person.extension:as-ext-person-birth-place</t>
-  </si>
-  <si>
-    <t>as-ext-person-birth-place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-person-birth-place}
-</t>
-  </si>
-  <si>
-    <t>AS Person Birth Place Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte du lieu de naissance du professionnel en tant que personne physique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>PersonnePhysique.lieuNaissance</t>
-  </si>
-  <si>
-    <t>Person.extension:as-ext-person-deceased-date-time</t>
-  </si>
-  <si>
-    <t>as-ext-person-deceased-date-time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.deceasedDateTime}
-</t>
-  </si>
-  <si>
-    <t>AS Person Deceased Date Time Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la date de décès du professionnel (Date of death of the Person if applicable).</t>
-  </si>
-  <si>
-    <t>PersonnePhysique.dateDeces</t>
-  </si>
-  <si>
-    <t>Person.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Person.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>A human identifier for this person</t>
-  </si>
-  <si>
-    <t>Identifier for a person within a particular scope.</t>
-  </si>
-  <si>
-    <t>People are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the person. Examples are national person identifier and local identifier.</t>
-  </si>
-  <si>
-    <t>.plays:Role(classCode='IDENT').id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Person.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
-</t>
-  </si>
-  <si>
-    <t>Nom issu de l’état-civil.</t>
-  </si>
-  <si>
-    <t>A name associated with the person.</t>
-  </si>
-  <si>
-    <t>Person may have multiple names with different uses or applicable periods.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by multiple names. Examples are your official name and a partner name.</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>Person.name.id</t>
-  </si>
-  <si>
-    <t>Person.name.extension</t>
   </si>
   <si>
     <t>Person.name.extension:assemblyOrder</t>
@@ -877,6 +731,9 @@
   </si>
   <si>
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>Civilités des personnes physiques du RASS</t>
@@ -1474,21 +1331,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1665,7 +1507,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1837,7 +1679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1951,7 +1793,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -2065,7 +1907,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -2177,7 +2019,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -2199,10 +2041,10 @@
         <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>102</v>
@@ -2213,7 +2055,9 @@
       <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>77</v>
@@ -2262,7 +2106,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -2274,13 +2118,13 @@
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>77</v>
@@ -2289,7 +2133,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2298,14 +2142,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -2317,16 +2161,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2352,49 +2196,49 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AF6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>77</v>
@@ -2405,16 +2249,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2424,7 +2266,7 @@
         <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>77</v>
@@ -2433,15 +2275,17 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>77</v>
@@ -2490,25 +2334,25 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>77</v>
@@ -2517,23 +2361,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>77</v>
@@ -2542,19 +2386,19 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2604,25 +2448,25 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
@@ -2631,12 +2475,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2647,7 +2491,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>77</v>
@@ -2656,20 +2500,18 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2706,31 +2548,29 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
@@ -2745,14 +2585,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2770,20 +2612,18 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2832,22 +2672,22 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -2859,14 +2699,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2875,7 +2717,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -2884,20 +2726,18 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -2946,7 +2786,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2955,13 +2795,13 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -2973,16 +2813,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2995,24 +2835,26 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3036,13 +2878,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -3060,7 +2902,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3072,13 +2914,13 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -3087,12 +2929,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3112,21 +2954,21 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3150,31 +2992,31 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3192,21 +3034,21 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3217,30 +3059,32 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3288,13 +3132,13 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
@@ -3306,21 +3150,21 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3343,17 +3187,15 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3378,13 +3220,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3402,7 +3244,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3414,13 +3256,13 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3429,23 +3271,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3457,16 +3299,16 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3504,37 +3346,37 @@
         <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3543,23 +3385,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3571,17 +3415,15 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3630,7 +3472,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3642,27 +3484,27 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AM17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3673,28 +3515,32 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3718,65 +3564,63 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3788,25 +3632,29 @@
         <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3854,45 +3702,43 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3902,24 +3748,26 @@
         <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3968,43 +3816,43 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4017,26 +3865,24 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4084,7 +3930,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4096,27 +3942,27 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4127,7 +3973,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4136,21 +3982,19 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>219</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4174,13 +4018,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4198,7 +4042,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4213,24 +4057,24 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4244,7 +4088,7 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>77</v>
@@ -4253,20 +4097,16 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4290,13 +4130,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4314,7 +4154,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4332,21 +4172,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4366,19 +4206,21 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>104</v>
+        <v>249</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4426,7 +4268,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4438,31 +4280,31 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4478,21 +4320,23 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4528,19 +4372,19 @@
         <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4552,31 +4396,29 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4597,13 +4439,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4654,25 +4496,25 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4681,48 +4523,46 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4746,63 +4586,67 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4811,7 +4655,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4820,23 +4664,19 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4884,47 +4724,47 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
@@ -4939,17 +4779,15 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4974,13 +4812,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4998,7 +4836,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5007,41 +4845,41 @@
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5053,18 +4891,20 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5112,13 +4952,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -5127,24 +4967,24 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5161,22 +5001,26 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5200,13 +5044,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5224,13 +5068,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5239,24 +5083,24 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5267,7 +5111,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5279,15 +5123,17 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5312,13 +5158,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5336,13 +5182,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5354,21 +5200,21 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>289</v>
+        <v>181</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>290</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5391,18 +5237,16 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5450,7 +5294,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5468,21 +5312,21 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>298</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5493,10 +5337,10 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>77</v>
@@ -5505,19 +5349,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5542,13 +5386,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5566,13 +5410,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5581,24 +5425,24 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5618,19 +5462,23 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>102</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5678,7 +5526,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5690,31 +5538,31 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5733,18 +5581,20 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>109</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>110</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>111</v>
+        <v>327</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5780,19 +5630,19 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>116</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5804,31 +5654,29 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5837,7 +5685,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5849,13 +5697,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5906,39 +5754,39 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>116</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5946,7 +5794,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>88</v>
@@ -5961,16 +5809,18 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5994,13 +5844,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6018,7 +5868,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6027,7 +5877,7 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>100</v>
@@ -6036,21 +5886,21 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6058,7 +5908,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -6067,25 +5917,23 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>102</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6134,7 +5982,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6152,21 +6000,21 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6177,32 +6025,28 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>169</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6226,37 +6070,35 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6268,21 +6110,21 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>246</v>
+        <v>356</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6302,20 +6144,18 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>341</v>
+        <v>177</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6364,7 +6204,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>180</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6376,38 +6216,38 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6416,18 +6256,20 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>183</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6476,74 +6318,74 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>353</v>
+        <v>157</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>354</v>
+        <v>158</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6568,13 +6410,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6592,39 +6434,39 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>358</v>
+        <v>131</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6632,35 +6474,31 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6708,10 +6546,10 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>88</v>
@@ -6723,19 +6561,19 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>369</v>
       </c>
@@ -6751,7 +6589,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6763,20 +6601,16 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>374</v>
-      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6800,13 +6634,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6830,7 +6664,7 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -6842,23 +6676,25 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6867,10 +6703,10 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>77</v>
@@ -6879,13 +6715,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6936,13 +6772,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -6954,21 +6790,21 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6988,21 +6824,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>384</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>385</v>
+        <v>178</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>386</v>
+        <v>179</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7050,7 +6884,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7062,13 +6896,13 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>388</v>
+        <v>181</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7079,44 +6913,44 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>391</v>
+        <v>183</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7164,43 +6998,43 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>389</v>
+        <v>186</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>394</v>
+        <v>181</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7213,22 +7047,26 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>397</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7264,17 +7102,19 @@
         <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7286,13 +7126,13 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>401</v>
+        <v>131</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7301,12 +7141,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7314,7 +7154,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -7329,13 +7169,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>102</v>
+        <v>381</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>103</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>104</v>
+        <v>367</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7386,10 +7226,10 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>105</v>
+        <v>364</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>88</v>
@@ -7398,13 +7238,13 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7413,23 +7253,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7441,17 +7281,15 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7476,13 +7314,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7500,1072 +7338,34 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>116</v>
+        <v>369</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>106</v>
+        <v>374</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN60" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN60">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="27">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>